--- a/results/scale/x0_grouped_wide_with_scale.xlsx
+++ b/results/scale/x0_grouped_wide_with_scale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,105 +436,100 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>subj_idx</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>subj_idx</t>
+          <t>emotion_negative_negative</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negative_negative</t>
+          <t>emotion_negative_positive</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negative_positive</t>
+          <t>emotion_positive_negative</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positive_negative</t>
+          <t>emotion_positive_positive</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positive_positive</t>
+          <t>shape_negative_negative</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>shape_negative_negative</t>
+          <t>shape_negative_positive</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>shape_negative_positive</t>
+          <t>shape_positive_negative</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>shape_positive_negative</t>
+          <t>shape_positive_positive</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>shape_positive_positive</t>
+          <t>emotion_positivePrimeIndex</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positivePrimeIndex</t>
+          <t>emotion_negativePrimeIndex</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>emotion_negativePrimeIndex</t>
+          <t>shape_positivePrimeIndex</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>shape_positivePrimeIndex</t>
+          <t>shape_negativePrimeIndex</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>shape_negativePrimeIndex</t>
+          <t>shape_positivePrime-negativePrime</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>shape_positivePrime-negativePrime</t>
+          <t>emotion_positivePrime-negativePrime</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>emotion_positivePrime-negativePrime</t>
+          <t>test</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>name</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>anxiety</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>anxiety</t>
+          <t>depression</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>HAMD</t>
         </is>
@@ -543,3544 +538,3294 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>56189087</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>-0.6135134275259104</v>
+      </c>
       <c r="C2" t="n">
-        <v>-0.6135134275259104</v>
+        <v>0.4143666717909213</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4143666717909213</v>
+        <v>-0.781518517733895</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.781518517733895</v>
+        <v>0.0337050010102198</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0337050010102198</v>
+        <v>-0.4924449937116179</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4924449937116179</v>
+        <v>-0.0112491691756114</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0112491691756114</v>
+        <v>0.6250923425287291</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6250923425287291</v>
+        <v>0.7413702721239473</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7413702721239473</v>
+        <v>-0.1680050902079846</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.8152235187441148</v>
+        <v>0.3806616707807015</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.027880099316832</v>
+        <v>1.117537336240347</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1162779295952182</v>
+        <v>-0.7526194412995587</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4811958245360065</v>
+        <v>1.870156777539906</v>
       </c>
       <c r="O2" t="n">
-        <v>1.870156777539906</v>
+        <v>-0.5486667609886862</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.5486667609886862</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.5775744755135053</v>
-      </c>
-      <c r="R2" t="inlineStr">
+        <v>1.32149001655122</v>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>钟文霞</t>
         </is>
       </c>
+      <c r="R2" t="n">
+        <v>18</v>
+      </c>
       <c r="S2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
-      </c>
-      <c r="U2" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>56277415</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>0.1275233885334733</v>
+      </c>
       <c r="C3" t="n">
-        <v>0.1275233885334733</v>
+        <v>-0.184738320363104</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.184738320363104</v>
+        <v>-0.3204060905763172</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3204060905763172</v>
+        <v>-0.2893430557978486</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2893430557978486</v>
+        <v>0.4845140554862313</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4845140554862313</v>
+        <v>-0.1841496994503187</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1841496994503187</v>
+        <v>-0.3747794801159059</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3747794801159059</v>
+        <v>0.364180365248679</v>
       </c>
       <c r="J3" t="n">
-        <v>0.364180365248679</v>
+        <v>-0.4479294791097905</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.03106303477846861</v>
+        <v>0.1046047354347446</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3122617088965773</v>
+        <v>-0.8592935356021372</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.7389598453645849</v>
+        <v>-0.5483300646989977</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6686637549365499</v>
+        <v>-0.3109634709031395</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.3109634709031395</v>
+        <v>-0.5525342145445351</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.5525342145445351</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-1.750948343976181</v>
-      </c>
-      <c r="R3" t="inlineStr">
+        <v>-0.8634976854476746</v>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>孔张骋</t>
         </is>
       </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>56279808</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>-0.2287316723825659</v>
+      </c>
       <c r="C4" t="n">
-        <v>-0.2287316723825659</v>
+        <v>-0.3023427146153375</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3023427146153375</v>
+        <v>0.7248445740955491</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7248445740955491</v>
+        <v>0.2406337217166539</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2406337217166539</v>
+        <v>0.0243595878770707</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0243595878770707</v>
+        <v>-0.5925325234321182</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5925325234321182</v>
+        <v>0.5329015558390655</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5329015558390655</v>
+        <v>0.4390841974404794</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4390841974404794</v>
+        <v>0.953576246478115</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4842108523788953</v>
+        <v>-0.5429764363319914</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07361104223277162</v>
+        <v>0.5085419679619948</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09381735839858613</v>
+        <v>-1.031616720872597</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6168921113091889</v>
+        <v>1.540158688834592</v>
       </c>
       <c r="O4" t="n">
-        <v>1.540158688834592</v>
+        <v>1.496552682810107</v>
       </c>
       <c r="P4" t="n">
-        <v>1.496552682810107</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-0.112474942764479</v>
-      </c>
-      <c r="R4" t="inlineStr">
+        <v>3.036711371644699</v>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>戴俞锋</t>
         </is>
+      </c>
+      <c r="R4" t="n">
+        <v>16</v>
       </c>
       <c r="S4" t="n">
         <v>16</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
-      </c>
-      <c r="U4" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>56343776</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>0.1566049581451324</v>
+      </c>
       <c r="C5" t="n">
-        <v>0.1566049581451324</v>
+        <v>-0.2859650244156093</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2859650244156093</v>
+        <v>-0.4759223554824021</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4759223554824021</v>
+        <v>0.249808569071193</v>
       </c>
       <c r="F5" t="n">
-        <v>0.249808569071193</v>
+        <v>-0.7445455717708214</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.7445455717708214</v>
+        <v>-0.7450430844525379</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.7450430844525379</v>
+        <v>0.8462388778012419</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8462388778012419</v>
+        <v>0.4497981245127642</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4497981245127642</v>
+        <v>-0.6325273136275344</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.7257309245535951</v>
+        <v>-0.5357735934868023</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4425699825607416</v>
+        <v>1.590784449572063</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3964407532884777</v>
+        <v>-1.194841208965302</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0004975126817164943</v>
+        <v>2.785625658537365</v>
       </c>
       <c r="O5" t="n">
-        <v>2.785625658537365</v>
+        <v>-0.09675372014073219</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.09675372014073219</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>-0.7723576665075756</v>
-      </c>
-      <c r="R5" t="inlineStr">
+        <v>2.688871938396633</v>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>蒲柳衣</t>
         </is>
       </c>
+      <c r="R5" t="n">
+        <v>6</v>
+      </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>56346638</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>-0.2554122980339595</v>
+      </c>
       <c r="C6" t="n">
-        <v>-0.2554122980339595</v>
+        <v>0.4700966366789453</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4700966366789453</v>
+        <v>-0.3177523856581201</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3177523856581201</v>
+        <v>-0.1414857041782029</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1414857041782029</v>
+        <v>-0.164053789791925</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.164053789791925</v>
+        <v>0.2628133167078139</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2628133167078139</v>
+        <v>-0.3031671485215897</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3031671485215897</v>
+        <v>0.5563462483166</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5563462483166</v>
+        <v>-0.0623400876241606</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1762666814799172</v>
+        <v>0.6115823408571481</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.7255089347129048</v>
+        <v>-0.1391133587296647</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.8595133968381896</v>
+        <v>-0.2935329316087861</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.4268671064997389</v>
+        <v>0.1544195728791214</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1544195728791214</v>
+        <v>-0.6739224284813088</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.6739224284813088</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.1165959628945369</v>
-      </c>
-      <c r="R6" t="inlineStr">
+        <v>-0.5195028556021875</v>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>许乔峰</t>
         </is>
       </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>56352066</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>-0.726117965150933</v>
+      </c>
       <c r="C7" t="n">
-        <v>-0.726117965150933</v>
+        <v>0.2175709773298251</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2175709773298251</v>
+        <v>0.2572603759671599</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2572603759671599</v>
+        <v>0.7154708315410852</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7154708315410852</v>
+        <v>-0.6503797488353218</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6503797488353218</v>
+        <v>0.6399174968881722</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6399174968881722</v>
+        <v>-0.0439907714475368</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0439907714475368</v>
+        <v>-0.1572092167667405</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1572092167667405</v>
+        <v>0.9833783411180929</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4582104555739253</v>
+        <v>-0.49789985421126</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.9436889424807581</v>
+        <v>0.606388977387785</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1132184453192037</v>
+        <v>0.7971267136549127</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.290297245723494</v>
+        <v>-0.1907377362671277</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1907377362671277</v>
+        <v>1.481278195329353</v>
       </c>
       <c r="P7" t="n">
-        <v>1.481278195329353</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.888994177949531</v>
-      </c>
-      <c r="R7" t="inlineStr">
+        <v>1.290540459062225</v>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>周鼎</t>
         </is>
       </c>
+      <c r="R7" t="n">
+        <v>10</v>
+      </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T7" t="n">
-        <v>13</v>
-      </c>
-      <c r="U7" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>56354957</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>0.0268809613950995</v>
+      </c>
       <c r="C8" t="n">
-        <v>0.0268809613950995</v>
+        <v>0.2735214148147945</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2735214148147945</v>
+        <v>-0.2898231124864315</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2898231124864315</v>
+        <v>0.6942434089490346</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6942434089490346</v>
+        <v>-0.2600988454177789</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2600988454177789</v>
+        <v>0.5220910251717832</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5220910251717832</v>
+        <v>-0.2562540760733951</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2562540760733951</v>
+        <v>0.11443509328345</v>
       </c>
       <c r="J8" t="n">
-        <v>0.11443509328345</v>
+        <v>-0.316704073881531</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.984066521435466</v>
+        <v>-0.4207219941342401</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.246640453419695</v>
+        <v>0.003844769344383769</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.3706891693568451</v>
+        <v>0.4076559318883332</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.782189870589562</v>
+        <v>-0.4038111625439494</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.4038111625439494</v>
+        <v>0.1040179202527091</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1040179202527091</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-0.3259253667830542</v>
-      </c>
-      <c r="R8" t="inlineStr">
+        <v>-0.2997932422912403</v>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>肖方睿</t>
         </is>
       </c>
+      <c r="R8" t="n">
+        <v>11</v>
+      </c>
       <c r="S8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
-      </c>
-      <c r="U8" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>56358294</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>-0.6793844723875221</v>
+      </c>
       <c r="C9" t="n">
-        <v>-0.6793844723875221</v>
+        <v>0.7499529446859595</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7499529446859595</v>
+        <v>-0.6593413336387635</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6593413336387635</v>
+        <v>0.3824133844550167</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3824133844550167</v>
+        <v>0.0808449088422229</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0808449088422229</v>
+        <v>0.7632564831842114</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7632564831842114</v>
+        <v>-0.6482462176111599</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6482462176111599</v>
+        <v>0.6196238063397989</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6196238063397989</v>
+        <v>0.02004313874875863</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.04175471809378</v>
+        <v>0.3675395602309428</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.429337417073482</v>
+        <v>-0.7290911264533828</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.267870023950959</v>
+        <v>0.1436326768444125</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.6824115743419885</v>
+        <v>-0.8727238032977952</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.8727238032977952</v>
+        <v>-0.3474964214821842</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.3474964214821842</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0.1978757506292688</v>
-      </c>
-      <c r="R9" t="inlineStr">
+        <v>-1.22022022477998</v>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>钟福琳</t>
         </is>
       </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
           <t>56362338</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>-0.317953353023919</v>
+      </c>
       <c r="C10" t="n">
-        <v>-0.317953353023919</v>
+        <v>0.4362019464257041</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4362019464257041</v>
+        <v>-0.6916861723244641</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6916861723244641</v>
+        <v>0.5178074163374763</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5178074163374763</v>
+        <v>-0.2236930605247322</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2236930605247322</v>
+        <v>0.3984667903388553</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3984667903388553</v>
+        <v>-0.2193840480199042</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2193840480199042</v>
+        <v>0.0536649769137967</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0536649769137967</v>
+        <v>-0.373732819300545</v>
       </c>
       <c r="K10" t="n">
-        <v>-1.20949358866194</v>
+        <v>-0.0816054699117722</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.7541552994496231</v>
+        <v>0.004309012504828014</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.2730490249337009</v>
+        <v>0.3448018134250586</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.6221598508635875</v>
+        <v>-0.3404928009202306</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.3404928009202306</v>
+        <v>-0.2921273493887728</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.2921273493887728</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>-0.1062274632824305</v>
-      </c>
-      <c r="R10" t="inlineStr">
+        <v>-0.6326201503090034</v>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>陆鸿运</t>
         </is>
       </c>
+      <c r="R10" t="n">
+        <v>12</v>
+      </c>
       <c r="S10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T10" t="n">
-        <v>10</v>
-      </c>
-      <c r="U10" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>56365025</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>-0.2381943532115483</v>
+      </c>
       <c r="C11" t="n">
-        <v>-0.2381943532115483</v>
+        <v>0.4788906711208215</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4788906711208215</v>
+        <v>-0.1203393071575737</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1203393071575737</v>
+        <v>0.5605618338427667</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5605618338427667</v>
+        <v>-0.3068272740846938</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3068272740846938</v>
+        <v>0.5810943004848526</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5810943004848526</v>
+        <v>-0.6546889094718849</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6546889094718849</v>
+        <v>0.0478900188885752</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0478900188885752</v>
+        <v>0.1178550460539746</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.6809011410003404</v>
+        <v>-0.08167116272194519</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.7170850243323699</v>
+        <v>-0.3478616353871911</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.7025789283604601</v>
+        <v>0.5332042815962773</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.8879215745695463</v>
+        <v>-0.8810659169834684</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.8810659169834684</v>
+        <v>0.1995262087759198</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1995262087759198</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.2215265295411157</v>
-      </c>
-      <c r="R11" t="inlineStr">
+        <v>-0.6815397082075485</v>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>季志强</t>
         </is>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>56367536</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>-0.274361901480956</v>
+      </c>
       <c r="C12" t="n">
-        <v>-0.274361901480956</v>
+        <v>-0.2011926457387307</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2011926457387307</v>
+        <v>-0.8315549187581406</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8315549187581406</v>
+        <v>0.1539039632391105</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1539039632391105</v>
+        <v>-0.7930910813081985</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7930910813081985</v>
+        <v>0.3060755040278468</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3060755040278468</v>
+        <v>-0.3056595816690605</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3056595816690605</v>
+        <v>0.7093772011444793</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7093772011444793</v>
+        <v>-0.5571930172771846</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.9854588819972511</v>
+        <v>-0.3550966089778412</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.07316925574222533</v>
+        <v>0.487431499639138</v>
       </c>
       <c r="M12" t="n">
-        <v>-1.01503678281354</v>
+        <v>-0.4033016971166326</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.099166585336045</v>
+        <v>0.8907331967557706</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8907331967557706</v>
+        <v>-0.2020964082993434</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.2020964082993434</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-0.8281598237325203</v>
-      </c>
-      <c r="R12" t="inlineStr">
+        <v>0.6886367884564271</v>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>徐昕睿</t>
         </is>
       </c>
+      <c r="R12" t="n">
+        <v>9</v>
+      </c>
       <c r="S12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
-      </c>
-      <c r="U12" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
           <t>56696990</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>0.4948470497568629</v>
+      </c>
       <c r="C13" t="n">
-        <v>0.4948470497568629</v>
+        <v>0.2113985254212417</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2113985254212417</v>
+        <v>-0.4822251525503193</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4822251525503193</v>
+        <v>0.0199113350058322</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0199113350058322</v>
+        <v>-0.6874385321227099</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.6874385321227099</v>
+        <v>0.3871195870044947</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3871195870044947</v>
+        <v>0.5080720953373155</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5080720953373155</v>
+        <v>0.2495663554262371</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2495663554262371</v>
+        <v>-0.9770722023071822</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.5021364875561515</v>
+        <v>0.1914871904154095</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2834485243356212</v>
+        <v>1.195510627460025</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2585057399110784</v>
+        <v>0.1375532315782576</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.074558119127205</v>
+        <v>1.057957395881768</v>
       </c>
       <c r="O13" t="n">
-        <v>1.057957395881768</v>
+        <v>-1.168559392722592</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.168559392722592</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.5474788471465104</v>
-      </c>
-      <c r="R13" t="inlineStr">
+        <v>-0.110601996840824</v>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>张屿嘉</t>
         </is>
       </c>
+      <c r="R13" t="n">
+        <v>20</v>
+      </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T13" t="n">
-        <v>14</v>
-      </c>
-      <c r="U13" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
           <t>56702182</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>0.1620761170620213</v>
+      </c>
       <c r="C14" t="n">
-        <v>0.1620761170620213</v>
+        <v>0.0633465034420637</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0633465034420637</v>
+        <v>0.0812976757057903</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0812976757057903</v>
+        <v>-0.2075098729252246</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2075098729252246</v>
+        <v>0.1261635410928935</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1261635410928935</v>
+        <v>0.1232655499801388</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1232655499801388</v>
+        <v>0.7192732015111802</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7192732015111802</v>
+        <v>0.1532186329884967</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1532186329884967</v>
+        <v>-0.080778441356231</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2888075486310149</v>
+        <v>0.2708563763672883</v>
       </c>
       <c r="L14" t="n">
-        <v>0.09872961361995759</v>
+        <v>0.5931096604182867</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5660545685226835</v>
+        <v>-0.02995308300835789</v>
       </c>
       <c r="N14" t="n">
-        <v>0.002897991112754683</v>
+        <v>0.6230627434266447</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6230627434266447</v>
+        <v>-0.3516348177235193</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.3516348177235193</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.7532345124209862</v>
-      </c>
-      <c r="R14" t="inlineStr">
+        <v>0.2714279257031252</v>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>于胡倩</t>
         </is>
       </c>
+      <c r="R14" t="n">
+        <v>8</v>
+      </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T14" t="n">
-        <v>14</v>
-      </c>
-      <c r="U14" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
           <t>56708148</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>-0.7509610544527098</v>
+      </c>
       <c r="C15" t="n">
-        <v>-0.7509610544527098</v>
+        <v>0.6432205459357775</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6432205459357775</v>
+        <v>-0.549757505446671</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.549757505446671</v>
+        <v>0.4029933280858507</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4029933280858507</v>
+        <v>-0.5750503190040495</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.5750503190040495</v>
+        <v>0.6750376831551576</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6750376831551576</v>
+        <v>-0.3059632661074898</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3059632661074898</v>
+        <v>-0.08117594077521489</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.08117594077521489</v>
+        <v>0.2012035490060388</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.9527508335325217</v>
+        <v>0.2402272178499268</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.394181600388487</v>
+        <v>0.2690870528965597</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.2247873253322749</v>
+        <v>0.7562136239303725</v>
       </c>
       <c r="N15" t="n">
-        <v>-1.250088002159207</v>
+        <v>-0.4871265710338128</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.4871265710338128</v>
+        <v>-0.03902366884388803</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.03902366884388803</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.466731443682898</v>
-      </c>
-      <c r="R15" t="inlineStr">
+        <v>-0.5261502398777009</v>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>程新宙</t>
         </is>
       </c>
+      <c r="R15" t="n">
+        <v>14</v>
+      </c>
       <c r="S15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
-      </c>
-      <c r="U15" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
           <t>56710691</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>0.1325430326209058</v>
+      </c>
       <c r="C16" t="n">
-        <v>0.1325430326209058</v>
+        <v>0.0091114540249345</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0091114540249345</v>
+        <v>-0.5925465868644043</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5925465868644043</v>
+        <v>0.5554096862183133</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5554096862183133</v>
+        <v>0.362804380917078</v>
       </c>
       <c r="G16" t="n">
-        <v>0.362804380917078</v>
+        <v>0.775970854641733</v>
       </c>
       <c r="H16" t="n">
-        <v>0.775970854641733</v>
+        <v>-0.5481819239941174</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5481819239941174</v>
+        <v>0.7706879478408876</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7706879478408876</v>
+        <v>-0.7250896194853101</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.147956273082718</v>
+        <v>-0.5462982321933788</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1234315785959713</v>
+        <v>-0.9109863049111954</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.318869871835005</v>
+        <v>0.005282906800845422</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.413166473724655</v>
+        <v>-0.9162692117120408</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.9162692117120408</v>
+        <v>-0.1787913872919313</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.1787913872919313</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-2.177091249789039</v>
-      </c>
-      <c r="R16" t="inlineStr">
+        <v>-1.095060599003972</v>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>王晨祎</t>
         </is>
       </c>
+      <c r="R16" t="n">
+        <v>13</v>
+      </c>
       <c r="S16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T16" t="n">
-        <v>12</v>
-      </c>
-      <c r="U16" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>56783666</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>-0.08611352634088409</v>
+      </c>
       <c r="C17" t="n">
-        <v>-0.08611352634088409</v>
+        <v>0.3849620990388469</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3849620990388469</v>
+        <v>-0.2748805895582376</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2748805895582376</v>
+        <v>0.5771165252438982</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5771165252438982</v>
+        <v>-0.3414833900684327</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3414833900684327</v>
+        <v>-0.5755319367677687</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.5755319367677687</v>
+        <v>-0.3401221251984005</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3401221251984005</v>
+        <v>0.2595657346684123</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2595657346684123</v>
+        <v>-0.1887670632173535</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.8519971148021358</v>
+        <v>-0.1921544262050513</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.471075625379731</v>
+        <v>0.001361264870032186</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.5996878598668128</v>
+        <v>-0.8350976714361811</v>
       </c>
       <c r="N17" t="n">
-        <v>0.234048546699336</v>
+        <v>0.8364589363062132</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8364589363062132</v>
+        <v>0.003387362987697817</v>
       </c>
       <c r="P17" t="n">
-        <v>0.003387362987697817</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>-1.214657895988554</v>
-      </c>
-      <c r="R17" t="inlineStr">
+        <v>0.8398462992939111</v>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>于金龙</t>
         </is>
       </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
-      </c>
-      <c r="U17" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
           <t>56787409</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>0.2410606598494679</v>
+      </c>
       <c r="C18" t="n">
-        <v>0.2410606598494679</v>
+        <v>0.7884126916849905</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7884126916849905</v>
+        <v>0.3004354604494949</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3004354604494949</v>
+        <v>0.8580982554876627</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8580982554876627</v>
+        <v>-0.6186565540512556</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6186565540512556</v>
+        <v>0.7730633457783735</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7730633457783735</v>
+        <v>-0.2734816061172122</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2734816061172122</v>
+        <v>0.07403774875588109</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07403774875588109</v>
+        <v>0.05937480060002698</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.5576627950381678</v>
+        <v>-0.06968556380267221</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.5473520318355226</v>
+        <v>0.3451749479340435</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.3475193548730933</v>
+        <v>0.6990255970224925</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.391719899829629</v>
+        <v>-0.353850649088449</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.353850649088449</v>
+        <v>0.1290603644026993</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1290603644026993</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.033889781753891</v>
-      </c>
-      <c r="R18" t="inlineStr">
+        <v>-0.2247902846857498</v>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>左家伟</t>
         </is>
       </c>
+      <c r="R18" t="n">
+        <v>12</v>
+      </c>
       <c r="S18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T18" t="n">
-        <v>11</v>
-      </c>
-      <c r="U18" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>depression</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>56789859</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>0.07910260015059679</v>
+      </c>
       <c r="C19" t="n">
-        <v>0.07910260015059679</v>
+        <v>0.3430255073430566</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3430255073430566</v>
+        <v>-0.6191855232372118</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.6191855232372118</v>
+        <v>0.3352722823453317</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3352722823453317</v>
+        <v>-0.6616942525571585</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.6616942525571585</v>
+        <v>0.2862450101871884</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2862450101871884</v>
+        <v>-0.7470559855364994</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.7470559855364994</v>
+        <v>0.1106504877266957</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1106504877266957</v>
+        <v>-0.6982881233878085</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.9544578055825435</v>
+        <v>0.007753224997724906</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.2639229071924598</v>
+        <v>-0.08536173297934091</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.8577064732631952</v>
+        <v>0.1755945224604927</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.9479392627443469</v>
+        <v>-0.2609562554398336</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.2609562554398336</v>
+        <v>-0.7060413483855335</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.7060413483855335</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>-0.6003021089089319</v>
-      </c>
-      <c r="R19" t="inlineStr">
+        <v>-0.966997603825367</v>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>王皓璋</t>
         </is>
       </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>55758322</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>-0.4567154831817884</v>
+      </c>
       <c r="C20" t="n">
-        <v>-0.4567154831817884</v>
+        <v>0.666853853016067</v>
       </c>
       <c r="D20" t="n">
-        <v>0.666853853016067</v>
+        <v>-0.4135152151000804</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.4135152151000804</v>
+        <v>0.3286074693615249</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3286074693615249</v>
+        <v>-0.1327241903692453</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1327241903692453</v>
+        <v>0.1872028620323466</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1872028620323466</v>
+        <v>-0.6478449025960109</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.6478449025960109</v>
+        <v>0.4031629514502601</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4031629514502601</v>
+        <v>0.04320026808170802</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.7421226844616053</v>
+        <v>0.3382463836545421</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.123569336197855</v>
+        <v>-0.5151207122267656</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.051007854046271</v>
+        <v>-0.2159600894179135</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.3199270524015919</v>
+        <v>-0.2991606228088521</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.2991606228088521</v>
+        <v>-0.2950461155728341</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.2950461155728341</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-0.3496341499084291</v>
-      </c>
-      <c r="R20" t="inlineStr">
+        <v>-0.5942067383816863</v>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>刘昊殷</t>
         </is>
       </c>
+      <c r="R20" t="n">
+        <v>9</v>
+      </c>
       <c r="S20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
-      </c>
-      <c r="U20" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>55760307</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>-0.3904767884270572</v>
+      </c>
       <c r="C21" t="n">
-        <v>-0.3904767884270572</v>
+        <v>0.2673264802280818</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2673264802280818</v>
+        <v>-0.2769468967216697</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2769468967216697</v>
+        <v>0.7117975212065631</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7117975212065631</v>
+        <v>-0.5977713099760259</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.5977713099760259</v>
+        <v>0.6715509582793469</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6715509582793469</v>
+        <v>-0.2173511796909946</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2173511796909946</v>
+        <v>0.7421450101060698</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7421450101060698</v>
+        <v>0.1135298917053875</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.9887444179282329</v>
+        <v>-0.4444710409784813</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.6578032686551389</v>
+        <v>0.3804201302850313</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.9594961897970644</v>
+        <v>-0.07059405182672296</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.269322268255373</v>
+        <v>0.4510141821117543</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4510141821117543</v>
+        <v>0.5580009326838689</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5580009326838689</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>-0.02111507081478559</v>
-      </c>
-      <c r="R21" t="inlineStr">
+        <v>1.009015114795623</v>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>舒琪</t>
         </is>
       </c>
+      <c r="R21" t="n">
+        <v>6</v>
+      </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
-      </c>
-      <c r="U21" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>55763117</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>-0.1714992028311174</v>
+      </c>
       <c r="C22" t="n">
-        <v>-0.1714992028311174</v>
+        <v>-0.2767143645660466</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2767143645660466</v>
+        <v>-0.2674339619286627</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.2674339619286627</v>
+        <v>0.2656535418263119</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2656535418263119</v>
+        <v>-0.7870451913014959</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.7870451913014959</v>
+        <v>-0.1432327630018348</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1432327630018348</v>
+        <v>-0.6762889714757849</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.6762889714757849</v>
+        <v>0.3795345605426981</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3795345605426981</v>
+        <v>-0.09593475909754531</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.5330875037549746</v>
+        <v>-0.5423679063923585</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1052151617349292</v>
+        <v>0.1107562198257109</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.055823532018483</v>
+        <v>-0.5227673235445329</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.6438124282996611</v>
+        <v>0.6335235433702437</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6335235433702437</v>
+        <v>0.4464331472948132</v>
       </c>
       <c r="P22" t="n">
-        <v>0.4464331472948132</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>-1.050313769208726</v>
-      </c>
-      <c r="R22" t="inlineStr">
+        <v>1.079956690665057</v>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>蔡安新</t>
         </is>
       </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>55766121</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>-0.3731171676645405</v>
+      </c>
       <c r="C23" t="n">
-        <v>-0.3731171676645405</v>
+        <v>0.6335117997489792</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6335117997489792</v>
+        <v>-0.4296067877987012</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4296067877987012</v>
+        <v>0.2188393540589777</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2188393540589777</v>
+        <v>-0.2428588227558111</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2428588227558111</v>
+        <v>-0.0168945428714713</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0168945428714713</v>
+        <v>-0.5863473350140437</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.5863473350140437</v>
+        <v>0.0671690834022473</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0671690834022473</v>
+        <v>-0.0564896201341607</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.6484461418576789</v>
+        <v>0.4146724456900015</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.00662896741352</v>
+        <v>-0.3434885122582326</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.6535164184162909</v>
+        <v>-0.08406362627371859</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.2259642798843398</v>
+        <v>-0.259424885984514</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.259424885984514</v>
+        <v>-0.4711620658241622</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.4711620658241622</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>-0.06936931297611043</v>
-      </c>
-      <c r="R23" t="inlineStr">
+        <v>-0.7305869518086762</v>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>王子菲</t>
         </is>
       </c>
+      <c r="R23" t="n">
+        <v>10</v>
+      </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T23" t="n">
-        <v>8</v>
-      </c>
-      <c r="U23" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>55768880</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>-0.1252684824571581</v>
+      </c>
       <c r="C24" t="n">
-        <v>-0.1252684824571581</v>
+        <v>0.5255742806105381</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5255742806105381</v>
+        <v>-0.4013668624910654</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4013668624910654</v>
+        <v>0.7766575441510786</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7766575441510786</v>
+        <v>0.2844249528545582</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2844249528545582</v>
+        <v>0.1182868039443896</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1182868039443896</v>
+        <v>-0.5191911768210594</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.5191911768210594</v>
+        <v>0.6034758406038729</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6034758406038729</v>
+        <v>-0.2760983800339073</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.178024406642144</v>
+        <v>-0.2510832635405404</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.6508427630676963</v>
+        <v>-0.8036161296756177</v>
       </c>
       <c r="M24" t="n">
-        <v>-1.122667017424932</v>
+        <v>-0.4851890366594833</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1661381489101686</v>
+        <v>-0.3184270930161343</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.3184270930161343</v>
+        <v>-0.02501511649336685</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.02501511649336685</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>-1.815986809909549</v>
-      </c>
-      <c r="R24" t="inlineStr">
+        <v>-0.3434422095095012</v>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>刘洋</t>
         </is>
       </c>
+      <c r="R24" t="n">
+        <v>6</v>
+      </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
-      </c>
-      <c r="U24" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
           <t>55774247</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>-0.2334204263138125</v>
+      </c>
       <c r="C25" t="n">
-        <v>-0.2334204263138125</v>
+        <v>-0.7580976739254019</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7580976739254019</v>
+        <v>0.3362792845095205</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3362792845095205</v>
+        <v>0.5421129619543441</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5421129619543441</v>
+        <v>-0.0103247886788455</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0103247886788455</v>
+        <v>0.137352882403701</v>
       </c>
       <c r="H25" t="n">
-        <v>0.137352882403701</v>
+        <v>0.6167621907476111</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6167621907476111</v>
+        <v>0.3415569022649631</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3415569022649631</v>
+        <v>0.569699710823333</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.2058336774448236</v>
+        <v>-1.300210635879746</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5246772476115895</v>
+        <v>0.6270869794264565</v>
       </c>
       <c r="M25" t="n">
-        <v>0.275205288482648</v>
+        <v>-0.2042040198612621</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.1476776710825465</v>
+        <v>0.8312909992877188</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8312909992877188</v>
+        <v>1.869910346703079</v>
       </c>
       <c r="P25" t="n">
-        <v>1.869910346703079</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>-0.3076279654912186</v>
-      </c>
-      <c r="R25" t="inlineStr">
+        <v>2.701201345990798</v>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>管笑啸</t>
         </is>
       </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
-      </c>
-      <c r="U25" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>55776021</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>-0.3702501249132029</v>
+      </c>
       <c r="C26" t="n">
-        <v>-0.3702501249132029</v>
+        <v>0.5168848286172887</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5168848286172887</v>
+        <v>-0.3855422984307324</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3855422984307324</v>
+        <v>0.5376236881554066</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5376236881554066</v>
+        <v>-0.2969505392635168</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2969505392635168</v>
+        <v>0.4634964462986159</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4634964462986159</v>
+        <v>-0.1289877094679838</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1289877094679838</v>
+        <v>0.6216739419310612</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6216739419310612</v>
+        <v>-0.01529217351752948</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.923165986586139</v>
+        <v>-0.02073885953811794</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.8871349535304915</v>
+        <v>0.167962829795533</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.7506616513990449</v>
+        <v>-0.1581774956324453</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.7604469855621327</v>
+        <v>0.3261403254279783</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3261403254279783</v>
+        <v>0.005446686020588454</v>
       </c>
       <c r="P26" t="n">
-        <v>0.005446686020588454</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>-0.02624569889255968</v>
-      </c>
-      <c r="R26" t="inlineStr">
+        <v>0.3315870114485667</v>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>贾凡</t>
         </is>
+      </c>
+      <c r="R26" t="n">
+        <v>8</v>
       </c>
       <c r="S26" t="n">
         <v>8</v>
       </c>
       <c r="T26" t="n">
-        <v>8</v>
-      </c>
-      <c r="U26" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t>55777851</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>-0.1533930368435721</v>
+      </c>
       <c r="C27" t="n">
-        <v>-0.1533930368435721</v>
+        <v>0.3520282044370161</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3520282044370161</v>
+        <v>0.7646306962742823</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7646306962742823</v>
+        <v>0.6131245601249306</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6131245601249306</v>
+        <v>-0.3980330348187502</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3980330348187502</v>
+        <v>0.5398724230876744</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5398724230876744</v>
+        <v>0.5084947645454551</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5084947645454551</v>
+        <v>0.3300137155493752</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3300137155493752</v>
+        <v>0.9180237331178543</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1515061361493517</v>
+        <v>-0.2610963556879144</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.5054212412805882</v>
+        <v>0.9065277993642052</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1784810489960799</v>
+        <v>0.2098587075382992</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.9379054579064245</v>
+        <v>0.6966690918259061</v>
       </c>
       <c r="O27" t="n">
-        <v>0.6966690918259061</v>
+        <v>1.179120088805769</v>
       </c>
       <c r="P27" t="n">
-        <v>1.179120088805769</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.773313884332444</v>
-      </c>
-      <c r="R27" t="inlineStr">
+        <v>1.875789180631675</v>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>肖舜睿</t>
         </is>
       </c>
+      <c r="R27" t="n">
+        <v>7</v>
+      </c>
       <c r="S27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
-      </c>
-      <c r="U27" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
           <t>55779767</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>-0.5872756930871158</v>
+      </c>
       <c r="C28" t="n">
-        <v>-0.5872756930871158</v>
+        <v>0.384924858974116</v>
       </c>
       <c r="D28" t="n">
-        <v>0.384924858974116</v>
+        <v>-0.667351392332433</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.667351392332433</v>
+        <v>0.412740880942499</v>
       </c>
       <c r="F28" t="n">
-        <v>0.412740880942499</v>
+        <v>0.0124511716414486</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0124511716414486</v>
+        <v>0.5134081599590677</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5134081599590677</v>
+        <v>-0.4953600379970992</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.4953600379970992</v>
+        <v>0.4619704897135528</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4619704897135528</v>
+        <v>-0.08007569924531721</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.080092273274932</v>
+        <v>-0.02781602196838301</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.9722005520612318</v>
+        <v>-0.5078112096385479</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.9573305277106521</v>
+        <v>0.05143767024551493</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.5009569883176191</v>
+        <v>-0.5592488798840627</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.5592488798840627</v>
+        <v>-0.0522596772769342</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.0522596772769342</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>-0.5642652606067332</v>
-      </c>
-      <c r="R28" t="inlineStr">
+        <v>-0.6115085571609969</v>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>林雨仙</t>
         </is>
       </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
           <t>55781652</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>0.2763720663224727</v>
+      </c>
       <c r="C29" t="n">
-        <v>0.2763720663224727</v>
+        <v>-0.1069848581472628</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1069848581472628</v>
+        <v>-0.0427828391773012</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.0427828391773012</v>
+        <v>-0.2478599231563727</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.2478599231563727</v>
+        <v>0.3121968289826015</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3121968289826015</v>
+        <v>-0.5216834814746556</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.5216834814746556</v>
+        <v>0.7488125684620013</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7488125684620013</v>
+        <v>0.5110633577314548</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5110633577314548</v>
+        <v>-0.3191549054997739</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2050770839790715</v>
+        <v>0.1408750650091099</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3833569244697355</v>
+        <v>0.4366157394793998</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2377492107305464</v>
+        <v>-1.03274683920611</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8338803104572571</v>
+        <v>1.46936257868551</v>
       </c>
       <c r="O29" t="n">
-        <v>1.46936257868551</v>
+        <v>-0.4600299705088838</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.4600299705088838</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>-0.7744109402173746</v>
-      </c>
-      <c r="R29" t="inlineStr">
+        <v>1.009332608176626</v>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>符慧跃</t>
         </is>
       </c>
+      <c r="R29" t="n">
+        <v>15</v>
+      </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T29" t="n">
-        <v>12</v>
-      </c>
-      <c r="U29" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
           <t>55850187</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>-0.2478796118252123</v>
+      </c>
       <c r="C30" t="n">
-        <v>-0.2478796118252123</v>
+        <v>0.0536757469144114</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0536757469144114</v>
+        <v>-0.533420159991945</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.533420159991945</v>
+        <v>0.5227305994606581</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5227305994606581</v>
+        <v>-0.4656079118824067</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.4656079118824067</v>
+        <v>-0.8453743287283103</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.8453743287283103</v>
+        <v>-0.4896482992724768</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.4896482992724768</v>
+        <v>0.2175745576216847</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2175745576216847</v>
+        <v>-0.2855405481667327</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.056150759452603</v>
+        <v>-0.4690548525462467</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.3015553587396237</v>
+        <v>-0.02404038739007008</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.7072228568941614</v>
+        <v>-1.062948886349995</v>
       </c>
       <c r="N30" t="n">
-        <v>0.3797664168459036</v>
+        <v>1.038908498959925</v>
       </c>
       <c r="O30" t="n">
-        <v>1.038908498959925</v>
+        <v>0.183514304379514</v>
       </c>
       <c r="P30" t="n">
-        <v>0.183514304379514</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>-1.841584674453045</v>
-      </c>
-      <c r="R30" t="inlineStr">
+        <v>1.222422803339439</v>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>徐正圆</t>
         </is>
       </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
           <t>55852656</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>0.2802179746135265</v>
+      </c>
       <c r="C31" t="n">
-        <v>0.2802179746135265</v>
+        <v>-0.3670322393121906</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.3670322393121906</v>
+        <v>0.3040470561302787</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3040470561302787</v>
+        <v>0.718631810619019</v>
       </c>
       <c r="F31" t="n">
-        <v>0.718631810619019</v>
+        <v>0.3758668994864773</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3758668994864773</v>
+        <v>0.164583075092333</v>
       </c>
       <c r="H31" t="n">
-        <v>0.164583075092333</v>
+        <v>-0.334919142693068</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.334919142693068</v>
+        <v>0.6792191000404946</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6792191000404946</v>
+        <v>0.02382908151675223</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.4145847544887403</v>
+        <v>-1.08566404993121</v>
       </c>
       <c r="L31" t="n">
-        <v>0.647250213925717</v>
+        <v>-0.7107860421795453</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.014138242733563</v>
+        <v>-0.5146360249481616</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2112838243941443</v>
+        <v>-0.1961500172313837</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.1961500172313837</v>
+        <v>1.109493131447962</v>
       </c>
       <c r="P31" t="n">
-        <v>1.109493131447962</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>-2.287257035542164</v>
-      </c>
-      <c r="R31" t="inlineStr">
+        <v>0.9133431142165782</v>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>陈圣泽</t>
         </is>
       </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
-      </c>
-      <c r="U31" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
           <t>55854618</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>-0.0210422613524261</v>
+      </c>
       <c r="C32" t="n">
-        <v>-0.0210422613524261</v>
+        <v>-0.0332068936141656</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0332068936141656</v>
+        <v>-0.0718817606223572</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.0718817606223572</v>
+        <v>-0.1673315953532627</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1673315953532627</v>
+        <v>-0.1311878300133241</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1311878300133241</v>
+        <v>-0.4350216082612001</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.4350216082612001</v>
+        <v>0.08109055141616479</v>
       </c>
       <c r="I32" t="n">
-        <v>0.08109055141616479</v>
+        <v>0.1025321138488791</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1025321138488791</v>
+        <v>-0.0508394992699311</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0954498347309055</v>
+        <v>0.1341247017390971</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0121646322617395</v>
+        <v>0.2122783814294889</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.02144156243271431</v>
+        <v>-0.5375537221100792</v>
       </c>
       <c r="N32" t="n">
-        <v>0.3038337782478761</v>
+        <v>0.7498321035395681</v>
       </c>
       <c r="O32" t="n">
-        <v>0.7498321035395681</v>
+        <v>-0.1849642010090282</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.1849642010090282</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>-0.2419901382114243</v>
-      </c>
-      <c r="R32" t="inlineStr">
+        <v>0.5648679025305399</v>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>黄泽铭</t>
         </is>
       </c>
+      <c r="R32" t="n">
+        <v>12</v>
+      </c>
       <c r="S32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T32" t="n">
-        <v>9</v>
-      </c>
-      <c r="U32" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
           <t>55860282</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>-0.4109098547993764</v>
+      </c>
       <c r="C33" t="n">
-        <v>-0.4109098547993764</v>
+        <v>0.8118204979175399</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8118204979175399</v>
+        <v>0.2619738346917983</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2619738346917983</v>
+        <v>0.0878328726596246</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0878328726596246</v>
+        <v>-0.6336225787341937</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.6336225787341937</v>
+        <v>0.6944282035375889</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6944282035375889</v>
+        <v>0.2187233880387919</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2187233880387919</v>
+        <v>0.196628499066126</v>
       </c>
       <c r="J33" t="n">
-        <v>0.196628499066126</v>
+        <v>0.6728836894911747</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1741409620321737</v>
+        <v>0.7239876252579153</v>
       </c>
       <c r="L33" t="n">
-        <v>-1.222730352716916</v>
+        <v>0.8523459667729856</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0220948889726659</v>
+        <v>0.4977997044714629</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.328050782271783</v>
+        <v>0.3545462623015226</v>
       </c>
       <c r="O33" t="n">
-        <v>0.3545462623015226</v>
+        <v>-0.05110393576674055</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.05110393576674055</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.747016985993539</v>
-      </c>
-      <c r="R33" t="inlineStr">
+        <v>0.3034423265347821</v>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>石玥</t>
         </is>
       </c>
+      <c r="R33" t="n">
+        <v>12</v>
+      </c>
       <c r="S33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
-      </c>
-      <c r="U33" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
           <t>55862633</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>-0.2732389166779925</v>
+      </c>
       <c r="C34" t="n">
-        <v>-0.2732389166779925</v>
+        <v>0.0062191740930677</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0062191740930677</v>
+        <v>-0.5239922555140145</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5239922555140145</v>
+        <v>0.1641747873308599</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1641747873308599</v>
+        <v>0.1105764525288413</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1105764525288413</v>
+        <v>0.5063420769978035</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5063420769978035</v>
+        <v>-0.4292751080842459</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.4292751080842459</v>
+        <v>-0.1417133701343012</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.1417133701343012</v>
+        <v>-0.250753338836022</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.6881670428448744</v>
+        <v>-0.1579556132377922</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.2794580907710602</v>
+        <v>-0.5398515606130871</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.2875617379499447</v>
+        <v>0.6480554471321047</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.3957656244689622</v>
+        <v>-1.187907007745192</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.187907007745192</v>
+        <v>-0.09279772559822985</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.09279772559822985</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>-0.3005050655547967</v>
-      </c>
-      <c r="R34" t="inlineStr">
+        <v>-1.280704733343422</v>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>张楚晨</t>
         </is>
       </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
           <t>55864604</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>-0.09568744918802501</v>
+      </c>
       <c r="C35" t="n">
-        <v>-0.09568744918802501</v>
+        <v>0.1655479753140393</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1655479753140393</v>
+        <v>-0.1432426402417162</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.1432426402417162</v>
+        <v>0.1942221386362073</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1942221386362073</v>
+        <v>-0.2355809879259694</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.2355809879259694</v>
+        <v>-0.1122896948929398</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.1122896948929398</v>
+        <v>-0.567552691527225</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.567552691527225</v>
+        <v>0.4843744797967511</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4843744797967511</v>
+        <v>-0.0475551910536912</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.3374647788779235</v>
+        <v>-0.02867416332216799</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.2612354245020643</v>
+        <v>-0.3319717036012556</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.051927171323976</v>
+        <v>-0.5966641746896909</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.1232912930330296</v>
+        <v>0.2646924710884353</v>
       </c>
       <c r="O35" t="n">
-        <v>0.2646924710884353</v>
+        <v>-0.01888102773152321</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.01888102773152321</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>-1.004865232666805</v>
-      </c>
-      <c r="R35" t="inlineStr">
+        <v>0.2458114433569121</v>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>冯雨晨</t>
         </is>
       </c>
+      <c r="R35" t="n">
+        <v>7</v>
+      </c>
       <c r="S35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T35" t="n">
-        <v>6</v>
-      </c>
-      <c r="U35" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
           <t>55866572</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>0.2290775603232703</v>
+      </c>
       <c r="C36" t="n">
-        <v>0.2290775603232703</v>
+        <v>0.2041516505938918</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2041516505938918</v>
+        <v>-0.4395785493408317</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.4395785493408317</v>
+        <v>0.6660825537451867</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6660825537451867</v>
+        <v>0.1897815588580273</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1897815588580273</v>
+        <v>-0.1956906767833728</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.1956906767833728</v>
+        <v>-0.6104262496673548</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.6104262496673548</v>
+        <v>0.2465423368828312</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2465423368828312</v>
+        <v>-0.6686561096641019</v>
       </c>
       <c r="K36" t="n">
-        <v>-1.105661103086018</v>
+        <v>-0.4619309031512949</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02492590972937853</v>
+        <v>-0.8002078085253821</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.856968586550186</v>
+        <v>-0.442233013666204</v>
       </c>
       <c r="N36" t="n">
-        <v>0.3854722356414001</v>
+        <v>-0.3579747948591781</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.3579747948591781</v>
+        <v>-0.2067252065128071</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.2067252065128071</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>-2.373027835006983</v>
-      </c>
-      <c r="R36" t="inlineStr">
+        <v>-0.5647000013719852</v>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>魏子航</t>
         </is>
       </c>
+      <c r="R36" t="n">
+        <v>8</v>
+      </c>
       <c r="S36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T36" t="n">
-        <v>9</v>
-      </c>
-      <c r="U36" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
           <t>55868471</t>
         </is>
       </c>
+      <c r="B37" t="n">
+        <v>-0.417252694788877</v>
+      </c>
       <c r="C37" t="n">
-        <v>-0.417252694788877</v>
+        <v>0.4262548520367413</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4262548520367413</v>
+        <v>-0.3607226954980281</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.3607226954980281</v>
+        <v>0.0567194344357912</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0567194344357912</v>
+        <v>-0.2068272724537373</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.2068272724537373</v>
+        <v>0.7235921316534766</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7235921316534766</v>
+        <v>0.5260688416664259</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5260688416664259</v>
+        <v>-0.1154733783485717</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.1154733783485717</v>
+        <v>0.0565299992908489</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.4174421299338193</v>
+        <v>0.3695354176009501</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.8435075468256183</v>
+        <v>0.7328961141201632</v>
       </c>
       <c r="M37" t="n">
-        <v>0.6415422200149976</v>
+        <v>0.8390655100020483</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.9304194041072139</v>
+        <v>-0.1061693958818851</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.1061693958818851</v>
+        <v>-0.3130054183101012</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.3130054183101012</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.99802704101401</v>
-      </c>
-      <c r="R37" t="inlineStr">
+        <v>-0.4191748141919863</v>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>瞿蓉蓉</t>
         </is>
       </c>
+      <c r="R37" t="n">
+        <v>9</v>
+      </c>
       <c r="S37" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T37" t="n">
-        <v>6</v>
-      </c>
-      <c r="U37" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
           <t>55916641</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>-0.6183002896351195</v>
+      </c>
       <c r="C38" t="n">
-        <v>-0.6183002896351195</v>
+        <v>-0.79300976808815</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.79300976808815</v>
+        <v>0.7054366703421932</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7054366703421932</v>
+        <v>0.6871610471281635</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6871610471281635</v>
+        <v>-0.0792100054106484</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.0792100054106484</v>
+        <v>-0.7659497279134031</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.7659497279134031</v>
+        <v>0.662835654803182</v>
       </c>
       <c r="I38" t="n">
-        <v>0.662835654803182</v>
+        <v>0.1843091292873764</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1843091292873764</v>
+        <v>1.323736959977313</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01827562321402965</v>
+        <v>-1.480170815216314</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1747094784530305</v>
+        <v>0.7420456602138303</v>
       </c>
       <c r="M38" t="n">
-        <v>0.4785265255158055</v>
+        <v>-0.9502588572007795</v>
       </c>
       <c r="N38" t="n">
-        <v>0.6867397225027547</v>
+        <v>1.69230451741461</v>
       </c>
       <c r="O38" t="n">
-        <v>1.69230451741461</v>
+        <v>2.803907775193626</v>
       </c>
       <c r="P38" t="n">
-        <v>2.803907775193626</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>-0.3646470522259501</v>
-      </c>
-      <c r="R38" t="inlineStr">
+        <v>4.496212292608236</v>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>伍凯鹏</t>
         </is>
+      </c>
+      <c r="R38" t="n">
+        <v>7</v>
       </c>
       <c r="S38" t="n">
         <v>7</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
-      </c>
-      <c r="U38" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
           <t>55918750</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>0.0543847563819952</v>
+      </c>
       <c r="C39" t="n">
-        <v>0.0543847563819952</v>
+        <v>-0.380479566756</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.380479566756</v>
+        <v>0.1771417491823166</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1771417491823166</v>
+        <v>0.5717188325792738</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5717188325792738</v>
+        <v>-0.2173299006973084</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2173299006973084</v>
+        <v>0.620533679450732</v>
       </c>
       <c r="H39" t="n">
-        <v>0.620533679450732</v>
+        <v>0.0411473992849267</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0411473992849267</v>
+        <v>-0.2406973478668565</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.2406973478668565</v>
+        <v>0.1227569928003214</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.3945770833969572</v>
+        <v>-0.9521983993352738</v>
       </c>
       <c r="L39" t="n">
-        <v>0.4348643231379952</v>
+        <v>0.2584772999822351</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2818447471517832</v>
+        <v>0.8612310273175885</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.8378635801480404</v>
+        <v>-0.6027537273353534</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.6027537273353534</v>
+        <v>1.074955392135595</v>
       </c>
       <c r="P39" t="n">
-        <v>1.074955392135595</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.2902669207648713</v>
-      </c>
-      <c r="R39" t="inlineStr">
+        <v>0.4722016648002418</v>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>邹阳</t>
         </is>
       </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
-      </c>
-      <c r="U39" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
           <t>55928394</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>-0.6530192069683036</v>
+      </c>
       <c r="C40" t="n">
-        <v>-0.6530192069683036</v>
+        <v>0.4898938603159337</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4898938603159337</v>
+        <v>-0.2150190926509473</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.2150190926509473</v>
+        <v>-0.1824521189727794</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1824521189727794</v>
+        <v>-0.6933219993534481</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.6933219993534481</v>
+        <v>0.2586516095573638</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2586516095573638</v>
+        <v>0.1052629311105682</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1052629311105682</v>
+        <v>0.0298231661776373</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0298231661776373</v>
+        <v>0.4380001143173563</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.03256697367816788</v>
+        <v>0.6723459792887131</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.142913067284237</v>
+        <v>0.7985849304640162</v>
       </c>
       <c r="M40" t="n">
-        <v>0.07543976493293089</v>
+        <v>0.2288284433797265</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.951973608910812</v>
+        <v>0.5697564870842897</v>
       </c>
       <c r="O40" t="n">
-        <v>0.5697564870842897</v>
+        <v>-0.2343458649713567</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.2343458649713567</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.137759467449812</v>
-      </c>
-      <c r="R40" t="inlineStr">
+        <v>0.3354106221129329</v>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>郑栋栋</t>
         </is>
       </c>
+      <c r="R40" t="n">
+        <v>8</v>
+      </c>
       <c r="S40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
           <t>55931580</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>-0.2739090889252157</v>
+      </c>
       <c r="C41" t="n">
-        <v>-0.2739090889252157</v>
+        <v>0.4697995712678732</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4697995712678732</v>
+        <v>-0.5310366675828092</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5310366675828092</v>
+        <v>0.4784084567845001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4784084567845001</v>
+        <v>-0.4673758289036022</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.4673758289036022</v>
+        <v>-0.2871573087078974</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.2871573087078974</v>
+        <v>-0.3508076785602481</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.3508076785602481</v>
+        <v>0.2006300134780373</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2006300134780373</v>
+        <v>-0.2571275786575935</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.009445124367309</v>
+        <v>-0.008608885516626918</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.7437086601930889</v>
+        <v>0.1165681503433541</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.5514376920382854</v>
+        <v>-0.4877873221859347</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.1802185201957048</v>
+        <v>0.6043554725292889</v>
       </c>
       <c r="O41" t="n">
-        <v>0.6043554725292889</v>
+        <v>-0.2485186931409666</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.2485186931409666</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>-0.6369556360168009</v>
-      </c>
-      <c r="R41" t="inlineStr">
+        <v>0.3558367793883222</v>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>高越</t>
         </is>
       </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
-      </c>
-      <c r="U41" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
           <t>55936390</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>0.0487748807202261</v>
+      </c>
       <c r="C42" t="n">
-        <v>0.0487748807202261</v>
+        <v>-0.3660181575101385</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.3660181575101385</v>
+        <v>0.5851914358197776</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5851914358197776</v>
+        <v>0.0946038810430317</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0946038810430317</v>
+        <v>0.1704680077788778</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1704680077788778</v>
+        <v>-0.8456762750067868</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.8456762750067868</v>
+        <v>-0.3611238340879596</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.3611238340879596</v>
+        <v>-0.0872281377508229</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.0872281377508229</v>
+        <v>0.5364165550995516</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4905875547767459</v>
+        <v>-0.4606220385531702</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4147930382303646</v>
+        <v>-0.5315918418668374</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.2738956963371367</v>
+        <v>-0.7584481372559638</v>
       </c>
       <c r="N42" t="n">
-        <v>1.016144282785665</v>
+        <v>0.2268562953891264</v>
       </c>
       <c r="O42" t="n">
-        <v>0.2268562953891264</v>
+        <v>0.9970385936527217</v>
       </c>
       <c r="P42" t="n">
-        <v>0.9970385936527217</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>-1.21424546257642</v>
-      </c>
-      <c r="R42" t="inlineStr">
+        <v>1.223894889041848</v>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>刘家源</t>
         </is>
       </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T42" t="n">
-        <v>7</v>
-      </c>
-      <c r="U42" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
           <t>55938914</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>-0.3425923459989879</v>
+      </c>
       <c r="C43" t="n">
-        <v>-0.3425923459989879</v>
+        <v>0.4781162082735</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4781162082735</v>
+        <v>-0.1112954043757709</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.1112954043757709</v>
+        <v>0.6966632479188919</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6966632479188919</v>
+        <v>-0.1352484717103554</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.1352484717103554</v>
+        <v>0.5781767375397838</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5781767375397838</v>
+        <v>-0.038161725701413</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.038161725701413</v>
+        <v>0.5668403471751983</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5668403471751983</v>
+        <v>0.231296941623217</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.8079586522946628</v>
+        <v>-0.2185470396453919</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.8207085542724879</v>
+        <v>0.0970867460089424</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.6050020728766112</v>
+        <v>0.01133639036458556</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.7134252092501392</v>
+        <v>0.08575035564435685</v>
       </c>
       <c r="O43" t="n">
-        <v>0.08575035564435685</v>
+        <v>0.4498439812686089</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4498439812686089</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.1211730383513531</v>
-      </c>
-      <c r="R43" t="inlineStr">
+        <v>0.5355943369129658</v>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>胡禄美</t>
         </is>
       </c>
+      <c r="R43" t="n">
+        <v>10</v>
+      </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T43" t="n">
-        <v>8</v>
-      </c>
-      <c r="U43" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
           <t>55949248</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>-0.1496795078085151</v>
+      </c>
       <c r="C44" t="n">
-        <v>-0.1496795078085151</v>
+        <v>0.5022071424763468</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5022071424763468</v>
+        <v>-0.2843804341785474</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.2843804341785474</v>
+        <v>0.5433658438633862</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5433658438633862</v>
+        <v>-0.1337757408531382</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.1337757408531382</v>
+        <v>0.5375660517680229</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5375660517680229</v>
+        <v>-0.288119904843727</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.288119904843727</v>
+        <v>0.4988416709092644</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4988416709092644</v>
+        <v>-0.1347009263700323</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.8277462780419336</v>
+        <v>-0.04115870138703936</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.6518866502848619</v>
+        <v>-0.1543441639905888</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.7869615757529914</v>
+        <v>0.03872438085875846</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.6713417926211611</v>
+        <v>-0.1930685448493473</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.1930685448493473</v>
+        <v>-0.09354222498299292</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.09354222498299292</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>-0.2914794108889019</v>
-      </c>
-      <c r="R44" t="inlineStr">
+        <v>-0.2866107698323402</v>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>陈奕诺</t>
         </is>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
       </c>
       <c r="S44" t="n">
         <v>4</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
-      </c>
-      <c r="U44" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
           <t>55951038</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>-0.6174265606981312</v>
+      </c>
       <c r="C45" t="n">
-        <v>-0.6174265606981312</v>
+        <v>0.7042248442117676</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7042248442117676</v>
+        <v>-0.369662051237934</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.369662051237934</v>
+        <v>0.5906680173829182</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5906680173829182</v>
+        <v>-0.7310216417067666</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.7310216417067666</v>
+        <v>0.5499280933976363</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5499280933976363</v>
+        <v>-0.4549475280938559</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.4549475280938559</v>
+        <v>-0.07837180279592811</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.07837180279592811</v>
+        <v>0.2477645094601972</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.9603300686208522</v>
+        <v>0.1135568268288494</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.321651404909899</v>
+        <v>0.2760741136129107</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.3765757252979278</v>
+        <v>0.6282998961935644</v>
       </c>
       <c r="N45" t="n">
-        <v>-1.280949735104403</v>
+        <v>-0.3522257825806536</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.3522257825806536</v>
+        <v>0.1342076826313478</v>
       </c>
       <c r="P45" t="n">
-        <v>0.1342076826313478</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.265695346095521</v>
-      </c>
-      <c r="R45" t="inlineStr">
+        <v>-0.2180180999493059</v>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>凌佩儿</t>
         </is>
       </c>
+      <c r="R45" t="n">
+        <v>7</v>
+      </c>
       <c r="S45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T45" t="n">
-        <v>6</v>
-      </c>
-      <c r="U45" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
           <t>56015648</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>0.0494565982792651</v>
+      </c>
       <c r="C46" t="n">
-        <v>0.0494565982792651</v>
+        <v>0.0069351543870312</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0069351543870312</v>
+        <v>-0.3543256905833902</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.3543256905833902</v>
+        <v>0.5000658006266361</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5000658006266361</v>
+        <v>-0.2693814132804434</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.2693814132804434</v>
+        <v>0.0978605036369979</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0978605036369979</v>
+        <v>-0.4276353831945033</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.4276353831945033</v>
+        <v>0.0329622601824549</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0329622601824549</v>
+        <v>-0.4037822888626553</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.8543914912100263</v>
+        <v>-0.4931306462396049</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0425214438922339</v>
+        <v>-0.1582539699140599</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.4605976433769582</v>
+        <v>0.06489824345454301</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.3672419169174413</v>
+        <v>-0.2231522133686029</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.2231522133686029</v>
+        <v>0.08934835737694959</v>
       </c>
       <c r="P46" t="n">
-        <v>0.08934835737694959</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>-0.9902686615617771</v>
-      </c>
-      <c r="R46" t="inlineStr">
+        <v>-0.1338038559916533</v>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>陈佳铭</t>
         </is>
       </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
-      </c>
-      <c r="U46" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
           <t>56020297</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>-0.1685261430583179</v>
+      </c>
       <c r="C47" t="n">
-        <v>-0.1685261430583179</v>
+        <v>0.6987374031401878</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6987374031401878</v>
+        <v>-0.0131783712211654</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.0131783712211654</v>
+        <v>0.6636137230304733</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6636137230304733</v>
+        <v>-0.0712697653451399</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0712697653451399</v>
+        <v>0.4611456489176179</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4611456489176179</v>
+        <v>-0.8286554160536925</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.8286554160536925</v>
+        <v>0.7547400968902317</v>
       </c>
       <c r="J47" t="n">
-        <v>0.7547400968902317</v>
+        <v>0.1553477718371525</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.6767920942516387</v>
+        <v>0.03512368010971456</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.8672635461985058</v>
+        <v>-0.7573856507085526</v>
       </c>
       <c r="M47" t="n">
-        <v>-1.583395512943924</v>
+        <v>-0.2935944479726138</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.5324154142627577</v>
+        <v>-0.4637912027359388</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.4637912027359388</v>
+        <v>0.120224091727438</v>
       </c>
       <c r="P47" t="n">
-        <v>0.120224091727438</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>-0.8605086467342993</v>
-      </c>
-      <c r="R47" t="inlineStr">
+        <v>-0.3435671110085008</v>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>陈浩然</t>
         </is>
       </c>
+      <c r="R47" t="n">
+        <v>10</v>
+      </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T47" t="n">
-        <v>6</v>
-      </c>
-      <c r="U47" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
           <t>56024896</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>-0.2989675616132843</v>
+      </c>
       <c r="C48" t="n">
-        <v>-0.2989675616132843</v>
+        <v>0.3874419063293982</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3874419063293982</v>
+        <v>0.2248194142496068</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2248194142496068</v>
+        <v>0.3251571883121117</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3251571883121117</v>
+        <v>-0.0146141018787856</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.0146141018787856</v>
+        <v>0.7650470807887709</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7650470807887709</v>
+        <v>-0.4669086324370276</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.4669086324370276</v>
+        <v>0.7183961129903578</v>
       </c>
       <c r="J48" t="n">
-        <v>0.7183961129903578</v>
+        <v>0.5237869758628911</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.1003377740625049</v>
+        <v>0.06228471801728647</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.6864094679426824</v>
+        <v>-0.452294530558242</v>
       </c>
       <c r="M48" t="n">
-        <v>-1.185304745427386</v>
+        <v>0.04665096779841316</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.7796611826675566</v>
+        <v>-0.4989454983566551</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.4989454983566551</v>
+        <v>0.4615022578456047</v>
       </c>
       <c r="P48" t="n">
-        <v>0.4615022578456047</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.1804281311203486</v>
-      </c>
-      <c r="R48" t="inlineStr">
+        <v>-0.03744324051105052</v>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>刘李浚</t>
         </is>
       </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
-      </c>
-      <c r="U48" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
           <t>56027303</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>-0.7626349243832592</v>
+      </c>
       <c r="C49" t="n">
-        <v>-0.7626349243832592</v>
+        <v>0.7130996778617585</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7130996778617585</v>
+        <v>-0.7641372703595387</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.7641372703595387</v>
+        <v>-0.1277067325925721</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.1277067325925721</v>
+        <v>-0.07960379298319351</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.07960379298319351</v>
+        <v>0.6863127996949784</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6863127996949784</v>
+        <v>-0.3435630896055229</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.3435630896055229</v>
+        <v>0.4319875503457688</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4319875503457688</v>
+        <v>-0.001502345976279518</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.6364305377669666</v>
+        <v>0.8408064104543307</v>
       </c>
       <c r="L49" t="n">
-        <v>-1.475734602245018</v>
+        <v>-0.2639592966223294</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.7755506399512917</v>
+        <v>0.2543252493492096</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.7659165926781719</v>
+        <v>-0.5182845459715389</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.5182845459715389</v>
+        <v>-0.8423087564306102</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.8423087564306102</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.8296700172049314</v>
-      </c>
-      <c r="R49" t="inlineStr">
+        <v>-1.360593302402149</v>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>谭天慧</t>
         </is>
       </c>
+      <c r="R49" t="n">
+        <v>12</v>
+      </c>
       <c r="S49" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T49" t="n">
-        <v>8</v>
-      </c>
-      <c r="U49" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
           <t>56035722</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>-0.2934423887914095</v>
+      </c>
       <c r="C50" t="n">
-        <v>-0.2934423887914095</v>
+        <v>0.4750101897139213</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4750101897139213</v>
+        <v>-0.2835137086472552</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2835137086472552</v>
+        <v>0.6424789417729331</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6424789417729331</v>
+        <v>-0.6963917875749354</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.6963917875749354</v>
+        <v>-0.104160115912586</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.104160115912586</v>
+        <v>-0.2158642959842539</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.2158642959842539</v>
+        <v>0.3193332814582801</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3193332814582801</v>
+        <v>0.009928680144154267</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.9259926504201883</v>
+        <v>-0.1674687520590118</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.7684525785053308</v>
+        <v>0.4805274915906814</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.535197577442534</v>
+        <v>-0.4234933973708661</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.5922316716623494</v>
+        <v>0.9040208889615475</v>
       </c>
       <c r="O50" t="n">
-        <v>0.9040208889615475</v>
+        <v>0.1773974322031661</v>
       </c>
       <c r="P50" t="n">
-        <v>0.1773974322031661</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>-0.1005059776950422</v>
-      </c>
-      <c r="R50" t="inlineStr">
+        <v>1.081418321164714</v>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>江凯翔</t>
         </is>
       </c>
+      <c r="R50" t="n">
+        <v>15</v>
+      </c>
       <c r="S50" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T50" t="n">
-        <v>9</v>
-      </c>
-      <c r="U50" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
           <t>56040135</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>-0.0390041716648192</v>
+      </c>
       <c r="C51" t="n">
-        <v>-0.0390041716648192</v>
+        <v>0.2767689091815195</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2767689091815195</v>
+        <v>-0.7038633337161936</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.7038633337161936</v>
+        <v>-0.08438978332242179</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.08438978332242179</v>
+        <v>-0.7272395761189248</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.7272395761189248</v>
+        <v>0.3569639384307068</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3569639384307068</v>
+        <v>-0.2658421266202136</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.2658421266202136</v>
+        <v>0.7400366001818824</v>
       </c>
       <c r="J51" t="n">
-        <v>0.7400366001818824</v>
+        <v>-0.6648591620513744</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.6194735503937718</v>
+        <v>0.3611586925039413</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.3157730808463386</v>
+        <v>0.4613974494987111</v>
       </c>
       <c r="M51" t="n">
-        <v>-1.005878726802096</v>
+        <v>-0.3830726617511757</v>
       </c>
       <c r="N51" t="n">
-        <v>-1.084203514549632</v>
+        <v>0.8444701112498868</v>
       </c>
       <c r="O51" t="n">
-        <v>0.8444701112498868</v>
+        <v>-1.026017854555316</v>
       </c>
       <c r="P51" t="n">
-        <v>-1.026017854555316</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>-0.2253756817998978</v>
-      </c>
-      <c r="R51" t="inlineStr">
+        <v>-0.1815477433054289</v>
+      </c>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>刘栩嘉</t>
         </is>
       </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>4</v>
-      </c>
-      <c r="U51" t="n">
         <v>6</v>
       </c>
     </row>
